--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508755.734965198</v>
+        <v>1504618.577715047</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10641338.18668955</v>
+        <v>10641338.18668956</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>24.66349443455859</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>187.4925936807769</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>83.56264790915115</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>238.8619303957198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>189.7185254440888</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>183.8950401425505</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.76451507639783</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>117.0663638590864</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>162.9848195363592</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>235.2400949117941</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.367844675690154</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>60.58827828646783</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189063</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>36.43062059490589</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>40.36264995190481</v>
       </c>
       <c r="F19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>60.42721558712923</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20.92847288553011</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
-        <v>206.1466683956862</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>75.75905456204254</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>35.03063761899501</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.273607737845</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>1606.350901856219</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.085203249468</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>862.2969506512238</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2039.508021269039</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2039.508021269039</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.739365998925</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1313.273607737845</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1313.273607737845</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.8936537153462</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1449.455998530331</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1226.477517725066</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="V4" t="n">
-        <v>1095.959288582547</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="W4" t="n">
-        <v>806.5421185455859</v>
+        <v>647.9420101919436</v>
       </c>
       <c r="X4" t="n">
-        <v>806.5421185455859</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.5421185455859</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.121004338519</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
         <v>1634.158487398107</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2376.586762599599</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2376.586762599599</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2376.586762599599</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2376.586762599599</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.121004338519</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.121004338519</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300791</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="C7" t="n">
-        <v>837.079342274803</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>422.2407331194357</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>275.3507856215253</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>570.1538267018288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1494.730474240485</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1108.942221642241</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>697.9563168526331</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>282.251566576922</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1991.278222045789</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1991.278222045789</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.509566775675</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775675</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
         <v>1867.77024428415</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1575.245838977055</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1575.245838977055</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1575.245838977055</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1286.127501480893</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1031.443013275006</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077151</v>
+        <v>742.0258432380454</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8383149077151</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.045735764185</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D13" t="n">
         <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2426.8463580632</v>
       </c>
       <c r="S13" t="n">
         <v>2243.991523718104</v>
@@ -5232,19 +5232,19 @@
         <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W13" t="n">
         <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687882</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845472</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327661</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048592</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925235</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925235</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>297.8113689946131</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>130.615269709493</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630058</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,49 +5515,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5609,13 +5609,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6527890600109</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>2505.71655096576</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>2484.576679364215</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1769.232122535068</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3118.73869457197</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>2949.802511644064</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>2799.685872231728</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.772778649335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>4038.586459480718</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>3749.169289443757</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>3521.17973854574</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>3300.38715940221</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>70.03064962107902</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M9" t="n">
-        <v>154.0169020165193</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.013714051753692e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823106</v>
+        <v>46.4596884482301</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.864092251318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>106.0713126946644</v>
       </c>
       <c r="F19" t="n">
-        <v>118.3918499711702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>84.99383243580201</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5054897610391</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
-        <v>80.03780599355795</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>251.492360717596</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663927</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
@@ -26346,13 +26346,13 @@
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827652.3133973313</v>
+        <v>-827652.313397332</v>
       </c>
       <c r="C6" t="n">
-        <v>287099.4701785878</v>
+        <v>287099.470178588</v>
       </c>
       <c r="D6" t="n">
-        <v>287099.4701785879</v>
+        <v>287099.470178588</v>
       </c>
       <c r="E6" t="n">
-        <v>-111648.7151039189</v>
+        <v>-111996.0943582764</v>
       </c>
       <c r="F6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.3472662703</v>
       </c>
       <c r="G6" t="n">
-        <v>395836.7265206268</v>
+        <v>395489.3472662703</v>
       </c>
       <c r="H6" t="n">
-        <v>395836.7265206268</v>
+        <v>395489.34726627</v>
       </c>
       <c r="I6" t="n">
-        <v>395836.726520627</v>
+        <v>395489.34726627</v>
       </c>
       <c r="J6" t="n">
-        <v>228231.5487106444</v>
+        <v>227884.1694562874</v>
       </c>
       <c r="K6" t="n">
-        <v>395836.726520627</v>
+        <v>395489.3472662702</v>
       </c>
       <c r="L6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.3472662699</v>
       </c>
       <c r="M6" t="n">
-        <v>263229.4327917004</v>
+        <v>262882.0535373432</v>
       </c>
       <c r="N6" t="n">
-        <v>395836.726520627</v>
+        <v>395489.3472662699</v>
       </c>
       <c r="O6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.34726627</v>
       </c>
       <c r="P6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.34726627</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>382.2125513071529</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.55265644768514</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>111.0998124525863</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>13.27571292810822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>175.5543663269187</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>22.76314483768323</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>80.85095794181453</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>49.24023618571778</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>138.0337330260462</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>15.80515521666788</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.4641355062471</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>40.96929413310578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226583</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>577.9642335061968</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>405.455331617202</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M9" t="n">
-        <v>520.9482342985598</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627482993</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1504618.577715047</v>
+        <v>1506379.108017833</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10641338.18668956</v>
+        <v>10641338.18668955</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>83.56264790915115</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>226.4477061955551</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>189.7185254440888</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>37.78693289880286</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>117.0663638590864</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>162.9848195363592</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>66.44641297686549</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>60.58827828646783</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>103.258801432719</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>22.44547853568561</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189153</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>36.43062059490589</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.36264995190481</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019807611472472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>164.7131308010989</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779849726</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>212.5602966632231</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>35.03063761899501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4412,25 +4412,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1449.455998530331</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1226.477517725066</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>937.3591802289043</v>
+        <v>1108.498908986754</v>
       </c>
       <c r="V4" t="n">
-        <v>937.3591802289043</v>
+        <v>1108.498908986754</v>
       </c>
       <c r="W4" t="n">
-        <v>647.9420101919436</v>
+        <v>819.0817389497932</v>
       </c>
       <c r="X4" t="n">
-        <v>419.9524592939263</v>
+        <v>591.0921880517759</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2184.059060190806</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
         <v>837.3843300102556</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2524.170709310456</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2524.170709310456</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2270.589648574635</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>1939.526761231065</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>1586.758105960951</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190806</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="Y5" t="n">
-        <v>2184.059060190806</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>570.1538267018288</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>570.1538267018288</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>570.1538267018288</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>422.2407331194357</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>275.3507856215253</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387894</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>570.1538267018288</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
-        <v>570.1538267018288</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>570.1538267018288</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852.996172847235</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="C8" t="n">
-        <v>1852.996172847235</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>1494.730474240485</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>1108.942221642241</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>697.9563168526331</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>282.251566576922</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2495.221739534635</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2495.221739534635</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2241.640678798814</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>1910.577791455244</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847235</v>
+        <v>1557.80913618513</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847235</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1852.996172847235</v>
+        <v>1184.34337792405</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>815.1145481251083</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.036292340028</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
         <v>514.036292340028</v>
@@ -4953,13 +4953,13 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.715959553122</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1575.245838977055</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1575.245838977055</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1575.245838977055</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1286.127501480893</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1031.443013275006</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W10" t="n">
-        <v>742.0258432380454</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X10" t="n">
-        <v>514.036292340028</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.036292340028</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143766</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706077</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427008</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797191</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.8463580632</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085243</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879356</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443776</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008474</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687882</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845472</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
         <v>1501.8401750111</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327661</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048592</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925235</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925235</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946131</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>130.615269709493</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603203</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947401</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704553</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806536</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630058</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900021</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776664</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>548.795341502774</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>401.9053940048636</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2049.400878868273</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7794,10 +7794,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>60.35797727397659</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111051</v>
+        <v>224.335519760177</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.013714051753692e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.4596884482301</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.864092251318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>106.0713126946644</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.811007491169903</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.9188905722451</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663927</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984473</v>
-      </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827652.313397332</v>
+        <v>-827652.3133973315</v>
       </c>
       <c r="C6" t="n">
-        <v>287099.470178588</v>
+        <v>287099.4701785881</v>
       </c>
       <c r="D6" t="n">
-        <v>287099.470178588</v>
+        <v>287099.4701785877</v>
       </c>
       <c r="E6" t="n">
-        <v>-111996.0943582764</v>
+        <v>-111683.4530293545</v>
       </c>
       <c r="F6" t="n">
-        <v>395489.3472662703</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="G6" t="n">
-        <v>395489.3472662703</v>
+        <v>395801.988595191</v>
       </c>
       <c r="H6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="I6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951911</v>
       </c>
       <c r="J6" t="n">
-        <v>227884.1694562874</v>
+        <v>228196.8107852087</v>
       </c>
       <c r="K6" t="n">
-        <v>395489.3472662702</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="L6" t="n">
-        <v>395489.3472662699</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="M6" t="n">
-        <v>262882.0535373432</v>
+        <v>263194.6948662646</v>
       </c>
       <c r="N6" t="n">
-        <v>395489.3472662699</v>
+        <v>395801.9885951909</v>
       </c>
       <c r="O6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="P6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951913</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>111.0998124525863</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>59.77944792564548</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>175.5543663269187</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>85.66528249999152</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>49.24023618571778</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>262.5773610745051</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>138.0337330260462</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>57.00580242192886</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>40.96929413310578</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>148.878841891109</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226583</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>358.0383379118268</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>436.6197581489553</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35266,7 +35266,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.95065951213</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627482993</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
